--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1446,10 +1446,6 @@
     <t>Metaspace memory allocation model</t>
   </si>
   <si>
-    <t>Most allocations for the class metadata are now allocated out of native memory.
-The klasses that were used to describe class metadata have been removed.</t>
-  </si>
-  <si>
     <t>Metaspace capacity`</t>
   </si>
   <si>
@@ -2746,6 +2742,10 @@
   </si>
   <si>
     <t>l_things_hard_to_do_GC.jpg</t>
+  </si>
+  <si>
+    <t>Most allocations for the class metadata are now allocated out of native memory.
+The classes that were used to describe class metadata have been removed.</t>
   </si>
 </sst>
 </file>
@@ -2981,7 +2981,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3051,6 +3051,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3059,6 +3065,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3068,26 +3083,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3100,9 +3106,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3183,7 +3186,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3510,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3523,17 +3526,17 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3574,118 +3577,118 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="28"/>
+      <c r="A7" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="30"/>
+      <c r="A8" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" s="28"/>
+      <c r="A18" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3718,9 +3721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3738,10 +3741,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3768,7 +3771,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3776,13 +3779,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3796,7 +3799,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3804,7 +3807,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3922,7 +3925,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3930,13 +3933,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4078,10 +4081,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4092,7 +4095,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4100,13 +4103,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="33"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4114,25 +4117,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="33"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="33"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="33"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4140,13 +4143,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="34"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="34"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4182,10 +4185,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="36"/>
+      <c r="B61" s="40"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4215,91 +4218,91 @@
       <c r="A65" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>114</v>
+      <c r="B65" s="27" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
       <c r="A66" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="75">
       <c r="A67" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30">
       <c r="A68" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45">
       <c r="A69" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="37"/>
+      <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="5" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="36" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="32"/>
-      <c r="B72" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="31" t="s">
+      <c r="B73" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="5" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="36"/>
+      <c r="B74" s="5" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="5" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4319,7 +4322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A84" sqref="A84:A92"/>
     </sheetView>
@@ -4339,800 +4342,795 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" s="35"/>
+      <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="34"/>
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="35"/>
+      <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="34"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="35" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="34" t="s">
+      <c r="B8" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="6" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="35" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="34" t="s">
+      <c r="B26" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="35"/>
+      <c r="B27" s="6" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="34"/>
-      <c r="B27" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
       <c r="A30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="6" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B38" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="35"/>
+      <c r="B39" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="23" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="34"/>
-      <c r="B39" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="23" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60">
       <c r="A43" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
       <c r="A47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
       <c r="A48" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="35" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="34" t="s">
+      <c r="B50" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="35"/>
+      <c r="B51" s="6" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="34"/>
-      <c r="B51" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
       <c r="A52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="135">
       <c r="A54" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="75">
       <c r="A58" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
       <c r="A59" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="105">
       <c r="A60" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60">
       <c r="A61" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
       <c r="A65" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
       <c r="A66" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30">
       <c r="A67" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30">
       <c r="A68" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60">
       <c r="A69" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B71" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="60">
+      <c r="A72" s="28" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="45" t="s">
+      <c r="B72" s="23" t="s">
         <v>409</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B73" s="23" t="s">
         <v>411</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1">
       <c r="A75" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
       <c r="A77" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B77" s="6" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="30">
+      <c r="A78" s="35" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="34" t="s">
+      <c r="B78" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B78" s="6" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="45">
+      <c r="A79" s="35"/>
+      <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="34"/>
-      <c r="B79" s="6" t="s">
+    <row r="80" spans="1:2" ht="90">
+      <c r="A80" s="35" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="34" t="s">
+      <c r="B80" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B80" s="6" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="90">
+      <c r="A81" s="35"/>
+      <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="34"/>
-      <c r="B81" s="6" t="s">
+    <row r="82" spans="1:2" ht="90">
+      <c r="A82" s="35" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="34" t="s">
+      <c r="B82" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="6" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="45">
+      <c r="A83" s="35"/>
+      <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="34"/>
-      <c r="B83" s="6" t="s">
+    <row r="84" spans="1:2" ht="60">
+      <c r="A84" s="35" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="34" t="s">
+      <c r="B84" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="34"/>
-      <c r="B85" s="39"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="42"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="34"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="42"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="34"/>
-      <c r="B87" s="39"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="42"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="34"/>
-      <c r="B88" s="39"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="42"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="34"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="42"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="34"/>
-      <c r="B90" s="39"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="42"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="34"/>
-      <c r="B91" s="39"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="42"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="34"/>
-      <c r="B92" s="39"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="42"/>
     </row>
     <row r="93" spans="1:2" ht="75">
       <c r="A93" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="60">
       <c r="A94" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="45">
       <c r="A96" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30">
       <c r="A97" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="60">
       <c r="A98" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="105">
       <c r="A99" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
       <c r="A100" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
       <c r="A101" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B101" s="6"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B102" s="6"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="120">
       <c r="A104" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B106" s="14"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B109" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A84:A92"/>
@@ -5140,6 +5138,11 @@
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A38:A40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="GC!A2" display="Up"/>
@@ -5174,250 +5177,250 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" s="42"/>
+      <c r="A2" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="33" t="s">
-        <v>347</v>
+      <c r="A5" s="38" t="s">
+        <v>346</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="33" t="s">
-        <v>344</v>
+      <c r="A7" s="38" t="s">
+        <v>343</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="33" t="s">
-        <v>337</v>
+      <c r="A11" s="38" t="s">
+        <v>336</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
-        <v>330</v>
+      <c r="A15" s="38" t="s">
+        <v>329</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="28"/>
+      <c r="A18" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="41" t="s">
-        <v>322</v>
+      <c r="A21" s="43" t="s">
+        <v>321</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" s="28"/>
+      <c r="A31" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5468,136 +5471,136 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>359</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="43" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="41" t="s">
+      <c r="B5" s="43"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="41"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>365</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>369</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>371</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>373</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>375</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>377</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B14" s="16" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="35" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="34" t="s">
+      <c r="B15" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B15" s="16" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="16" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="16" t="s">
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="35"/>
+      <c r="B17" s="16" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="34"/>
-      <c r="B17" s="16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="B18" s="16" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="43" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -2239,12 +2239,6 @@
     <t>Meta space settings</t>
   </si>
   <si>
-    <t xml:space="preserve"> -XX:MetaSpaceSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -XX:MaxMetaSpaceSize</t>
-  </si>
-  <si>
     <t>JDK Tools</t>
   </si>
   <si>
@@ -2746,6 +2740,12 @@
   <si>
     <t>Most allocations for the class metadata are now allocated out of native memory.
 The classes that were used to describe class metadata have been removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -XX:MetaspaceSize=128m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -XX:MaxMetaspaceSize=512m</t>
   </si>
 </sst>
 </file>
@@ -2981,7 +2981,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3057,6 +3057,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3065,15 +3068,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3083,17 +3077,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3186,7 +3189,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3513,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3531,12 +3534,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3577,10 +3580,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3599,16 +3602,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="B7" s="30"/>
+      <c r="A7" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -3620,10 +3623,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3635,60 +3638,60 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="30"/>
+      <c r="A13" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" s="30"/>
+      <c r="A18" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3723,7 +3726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3741,10 +3744,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3771,7 +3774,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3779,13 +3782,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3799,7 +3802,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3807,7 +3810,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3925,7 +3928,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3933,13 +3936,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="35"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4081,10 +4084,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="41"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4095,7 +4098,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4103,13 +4106,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="38"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4117,25 +4120,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="38"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="38"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="38"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="37" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4143,13 +4146,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="35"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="35"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4185,10 +4188,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="40"/>
+      <c r="B61" s="39"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4219,7 +4222,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
@@ -4263,7 +4266,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="35" t="s">
         <v>289</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4271,38 +4274,38 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="37"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>293</v>
+      <c r="B73" s="29" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="36"/>
-      <c r="B74" s="5" t="s">
-        <v>294</v>
+      <c r="A74" s="34"/>
+      <c r="B74" s="29" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4342,13 +4345,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4356,39 +4359,39 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="35"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="37" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>158</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4470,7 +4473,7 @@
         <v>159</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
@@ -4486,7 +4489,7 @@
         <v>162</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4494,7 +4497,7 @@
         <v>163</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4502,7 +4505,7 @@
         <v>164</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
@@ -4514,7 +4517,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="37" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4522,7 +4525,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>177</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4572,11 +4575,11 @@
         <v>178</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="37" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4584,7 +4587,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="35"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="6" t="s">
         <v>180</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>181</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4602,11 +4605,11 @@
         <v>182</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="37" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4614,15 +4617,15 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="35"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="35"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
@@ -4698,7 +4701,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="37" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4706,7 +4709,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="35"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="6" t="s">
         <v>206</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>243</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4868,23 +4871,23 @@
         <v>244</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
       <c r="A72" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4892,15 +4895,15 @@
         <v>245</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1">
       <c r="A75" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4908,7 +4911,7 @@
         <v>246</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="105">
@@ -4920,7 +4923,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="37" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -4928,13 +4931,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="35"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="37" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -4942,13 +4945,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="35"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -4956,13 +4959,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="35"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4970,35 +4973,35 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="35"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="42"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="35"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="42"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="42"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="42"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="42"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="42"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="35"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="42"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="35"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="42"/>
     </row>
     <row r="93" spans="1:2" ht="75">
@@ -5082,7 +5085,7 @@
         <v>278</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="120">
@@ -5177,250 +5180,250 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="38" t="s">
-        <v>346</v>
+      <c r="A5" s="36" t="s">
+        <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38" t="s">
-        <v>343</v>
+      <c r="A7" s="36" t="s">
+        <v>341</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
-        <v>336</v>
+      <c r="A11" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="38" t="s">
-        <v>329</v>
+      <c r="A15" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" s="30"/>
+      <c r="A18" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="43" t="s">
-        <v>321</v>
+      <c r="A21" s="44" t="s">
+        <v>319</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B31" s="30"/>
+      <c r="A31" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5471,136 +5474,136 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="46"/>
+      <c r="A2" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="44"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="44" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" s="43"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="35" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="B15" s="16" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="37"/>
+      <c r="B17" s="16" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="16" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="35"/>
-      <c r="B17" s="16" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="GC" sheetId="3" r:id="rId4"/>
     <sheet name="JDKTools" sheetId="4" r:id="rId5"/>
     <sheet name="ClassLoading" sheetId="5" r:id="rId6"/>
+    <sheet name="Java Memory Model" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="420">
   <si>
     <t>Topics</t>
   </si>
@@ -2746,6 +2747,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -XX:MaxMetaspaceSize=512m</t>
+  </si>
+  <si>
+    <t>Java Memory Model</t>
+  </si>
+  <si>
+    <t>Understanding and Solving Java Memory Problems</t>
   </si>
 </sst>
 </file>
@@ -3068,6 +3075,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3077,19 +3093,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3189,7 +3196,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3497,11 +3504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3542,6 +3549,11 @@
         <v>354</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="JVM!A1" display="JVM"/>
@@ -3550,6 +3562,7 @@
     <hyperlink ref="A4" location="JDKTools!A1" display="JDK Tools"/>
     <hyperlink ref="A5" location="ClassLoading!A1" display="ClassLoading"/>
     <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="A6" location="'Java Memory Model'!A1" display="Java Memory Model"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3562,7 +3575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3724,9 +3737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3774,7 +3787,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3782,13 +3795,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="37"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="37"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3802,7 +3815,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3810,7 +3823,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="37"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3928,7 +3941,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3936,13 +3949,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="37"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="37"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4084,10 +4097,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="41"/>
+      <c r="B46" s="35"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4098,7 +4111,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4106,13 +4119,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="36"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4120,25 +4133,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="36"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="36"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="36"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="36" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4146,13 +4159,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="37"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="37"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4188,10 +4201,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="41"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4266,7 +4279,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="38" t="s">
         <v>289</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4274,13 +4287,13 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="35"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="37" t="s">
         <v>292</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -4288,24 +4301,24 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="34"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="29" t="s">
         <v>417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4359,25 +4372,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="37"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4385,13 +4398,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4517,7 +4530,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4525,7 +4538,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="37"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -4579,7 +4592,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="36" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4587,7 +4600,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="6" t="s">
         <v>180</v>
       </c>
@@ -4609,7 +4622,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="36" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4617,13 +4630,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="23" t="s">
         <v>403</v>
       </c>
@@ -4701,7 +4714,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4709,7 +4722,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="37"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="6" t="s">
         <v>206</v>
       </c>
@@ -4923,7 +4936,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="36" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -4931,13 +4944,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="37"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="36" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -4945,13 +4958,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="37"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="36" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -4959,13 +4972,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="37"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="36" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4973,35 +4986,35 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="37"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="42"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="37"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="42"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="37"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="42"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="37"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="42"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="42"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="37"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="42"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="42"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="37"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="42"/>
     </row>
     <row r="93" spans="1:2" ht="75">
@@ -5202,7 +5215,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5210,13 +5223,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -5224,7 +5237,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="18" t="s">
         <v>339</v>
       </c>
@@ -5246,7 +5259,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5254,7 +5267,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
@@ -5276,7 +5289,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="39" t="s">
         <v>327</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5284,7 +5297,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="18" t="s">
         <v>325</v>
       </c>
@@ -5572,7 +5585,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>378</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5580,13 +5593,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="37"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="16" t="s">
         <v>381</v>
       </c>
@@ -5619,4 +5632,45 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="2" max="2" width="120.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B1" location="'Java Memory Model'!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -3075,15 +3075,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3093,10 +3084,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3196,7 +3196,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3787,7 +3787,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3795,13 +3795,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3815,7 +3815,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3823,7 +3823,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3949,13 +3949,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="36"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4097,10 +4097,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="41"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4111,7 +4111,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4119,13 +4119,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="39"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4133,25 +4133,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="39"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="39"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="39"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="37" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4159,13 +4159,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="36"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="36"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4201,10 +4201,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="41"/>
+      <c r="B61" s="39"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4279,7 +4279,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="35" t="s">
         <v>289</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4287,13 +4287,13 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="38"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="34" t="s">
         <v>292</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -4301,24 +4301,24 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="37"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="29" t="s">
         <v>417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4372,25 +4372,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4398,13 +4398,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="36"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -4592,7 +4592,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="37" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4600,7 +4600,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="6" t="s">
         <v>180</v>
       </c>
@@ -4622,7 +4622,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="37" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4630,13 +4630,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="36"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="23" t="s">
         <v>403</v>
       </c>
@@ -4714,7 +4714,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="37" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4722,7 +4722,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="36"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="6" t="s">
         <v>206</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="37" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -4944,13 +4944,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="36"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="37" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -4958,13 +4958,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="36"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -4972,13 +4972,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="36"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4986,35 +4986,35 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="36"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="42"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="36"/>
+      <c r="A86" s="37"/>
       <c r="B86" s="42"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="36"/>
+      <c r="A87" s="37"/>
       <c r="B87" s="42"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="36"/>
+      <c r="A88" s="37"/>
       <c r="B88" s="42"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="36"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="42"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="36"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="42"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="36"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="42"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="36"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="42"/>
     </row>
     <row r="93" spans="1:2" ht="75">
@@ -5215,7 +5215,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5223,13 +5223,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -5237,7 +5237,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="18" t="s">
         <v>339</v>
       </c>
@@ -5259,7 +5259,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="36" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5267,7 +5267,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>327</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5297,7 +5297,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="18" t="s">
         <v>325</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>378</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5593,13 +5593,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="16" t="s">
         <v>381</v>
       </c>

--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="469">
   <si>
     <t>Topics</t>
   </si>
@@ -2753,6 +2753,167 @@
   </si>
   <si>
     <t>Understanding and Solving Java Memory Problems</t>
+  </si>
+  <si>
+    <t>Inspect JVM (means how many JVMs running in the machine and lists them with process id)</t>
+  </si>
+  <si>
+    <t>running jps</t>
+  </si>
+  <si>
+    <t>E:\&gt; jps
+13024 Remembral.jar
+15000 Jps</t>
+  </si>
+  <si>
+    <t>jps -l</t>
+  </si>
+  <si>
+    <t>E:\&gt; jps -l
+13024 libs/Remembral.jar
+8336 sun.tools.jps.Jps</t>
+  </si>
+  <si>
+    <t>E:\&gt; jps -lv
+13024 libs/Remembral.jar -Xms128m -Xmx512m
+15160 sun.tools.jps.Jps -Denv.class.path=C:\Program Files (x86)\Java\jdk1.6.0\lib;D:\Derby\db-derby-10.9.1.0-bin\lib\derby.jar;D:\Derby\db-derby-10.9.1.0-bin\lib\derbytools.jar;. -Dapplication.home=C:\Program Files\Java\jdk1.8.0_65 -Xms8m</t>
+  </si>
+  <si>
+    <t>to see vm arguments
+jps -lv</t>
+  </si>
+  <si>
+    <t>jvisual VM</t>
+  </si>
+  <si>
+    <t>Tools to inspect JVM</t>
+  </si>
+  <si>
+    <t>1. jps
+2. jvisualvm</t>
+  </si>
+  <si>
+    <t>jps (present inside jdk bin folder)</t>
+  </si>
+  <si>
+    <t>present inside jdk bin folder</t>
+  </si>
+  <si>
+    <t>Running jvisualvm</t>
+  </si>
+  <si>
+    <t>If we add jdk/bin to path -&gt; run "jvisualvm" -&gt; this will open jvisualvm as a separate window</t>
+  </si>
+  <si>
+    <t>Object Histograms</t>
+  </si>
+  <si>
+    <t>listing of how much memory is used by different types of objects</t>
+  </si>
+  <si>
+    <t>jmap -histo:[live..] &lt;pid&gt;</t>
+  </si>
+  <si>
+    <t>jmap -histo 13024 | less</t>
+  </si>
+  <si>
+    <t>running jmap ( | less will make to see results page by page, using up and down arrows we can see before and after pages)
+press enter -&gt; we will get curson back</t>
+  </si>
+  <si>
+    <t>seeing an object histogram from cmd</t>
+  </si>
+  <si>
+    <t>[B</t>
+  </si>
+  <si>
+    <t>Byte Array</t>
+  </si>
+  <si>
+    <t>[C</t>
+  </si>
+  <si>
+    <t>Char array</t>
+  </si>
+  <si>
+    <t>Heap Dumps</t>
+  </si>
+  <si>
+    <t>copy/current snapshot of all live objects in the application's heap</t>
+  </si>
+  <si>
+    <t>getting heap dump from cmd</t>
+  </si>
+  <si>
+    <t>jmap -dump: [live, ..] file=/path/to/dump &lt;pid&gt;</t>
+  </si>
+  <si>
+    <t>E:\&gt; jmap -dump:file=C:\Users\Admin\Desktop\example.hprof 13024</t>
+  </si>
+  <si>
+    <t>Running jmap for heap dump</t>
+  </si>
+  <si>
+    <t>using jvisualvm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -XX:+HeapDumpOnOutOfMemoryError
+ -XX:HeapDumpPath=/path/to/dump</t>
+  </si>
+  <si>
+    <t>heap dump on out of memory by using jvm arguments</t>
+  </si>
+  <si>
+    <t>Performs heap dump when we run out of out of memory (or spends too long performing GC)
+be careful while using this approach, because in large applications if we use this option then application will spends more time in generating giga bytes of file of heap dump</t>
+  </si>
+  <si>
+    <t>Tools to analyze heap dump generated</t>
+  </si>
+  <si>
+    <t>1. mat from eclipse (mat == memory analyzer toolkit) - best tool to use
+2. jhat
+3. jvisualvm</t>
+  </si>
+  <si>
+    <t>Memory Profiling</t>
+  </si>
+  <si>
+    <t>tool used to observe method execution, thread execution, object creation etc in jvm</t>
+  </si>
+  <si>
+    <t>Memory Profiling tools</t>
+  </si>
+  <si>
+    <t>1. jvisualvm (ships with kdk. Can see in jdk/bin)
+2. Java Mission control (ships with jdk 8. More accurate. Free in development environment, for production use we have to pay)</t>
+  </si>
+  <si>
+    <t>Memory profiling with jvisualvm</t>
+  </si>
+  <si>
+    <t>open jvisualvm -&gt; open any running jvm -&gt; profiler tab -&gt; CPU for cpu profiling -&gt; settings check box -&gt; Memory Settings tab (only able to change values before clicking CPU button) -&gt; this will take some time, wait until Profiling is complete -&gt; after this go through different options available. They are self explanatory</t>
+  </si>
+  <si>
+    <t>Memory Leak</t>
+  </si>
+  <si>
+    <t>A memory leak occurs when memory that has been allocated and is no longer needed does not get released</t>
+  </si>
+  <si>
+    <t>Age of the object</t>
+  </si>
+  <si>
+    <t>number of Garbage collections that object has survived</t>
+  </si>
+  <si>
+    <t>generational count</t>
+  </si>
+  <si>
+    <t>no.of different ages of objects that are surviving of a given class</t>
+  </si>
+  <si>
+    <t>candidates with increasing generational count are leak candidates</t>
   </si>
 </sst>
 </file>
@@ -2988,7 +3149,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3067,6 +3228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3075,6 +3242,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3084,19 +3260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3196,7 +3363,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3593,10 +3760,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3615,16 +3782,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -3651,10 +3818,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
@@ -3689,10 +3856,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -3757,10 +3924,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3787,7 +3954,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3795,13 +3962,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3815,7 +3982,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3823,7 +3990,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3941,7 +4108,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3949,13 +4116,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4097,10 +4264,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="41"/>
+      <c r="B46" s="37"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4111,7 +4278,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4119,13 +4286,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="36"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4133,25 +4300,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="36"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="36"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="36"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="38" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4159,13 +4326,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="37"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="37"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4201,10 +4368,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="43"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4279,7 +4446,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="40" t="s">
         <v>289</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4287,13 +4454,13 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="35"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="39" t="s">
         <v>292</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -4301,24 +4468,24 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="34"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="29" t="s">
         <v>417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4358,13 +4525,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4372,25 +4539,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4398,13 +4565,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4530,7 +4697,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4538,7 +4705,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -4592,7 +4759,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="38" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4600,7 +4767,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>180</v>
       </c>
@@ -4622,7 +4789,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="38" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4630,13 +4797,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="37"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="37"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="23" t="s">
         <v>403</v>
       </c>
@@ -4714,7 +4881,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="38" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4722,7 +4889,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="37"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>206</v>
       </c>
@@ -4936,7 +5103,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -4944,13 +5111,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="37"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="38" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -4958,13 +5125,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="37"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="38" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -4972,13 +5139,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="37"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="38" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -4986,36 +5153,36 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="37"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="44"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="37"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="44"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="37"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="44"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="37"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="44"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="37"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="44"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="44"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="37"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="44"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="37"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="44"/>
     </row>
     <row r="93" spans="1:2" ht="75">
       <c r="A93" s="5" t="s">
@@ -5193,10 +5360,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5215,7 +5382,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="41" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5223,13 +5390,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="41" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -5237,7 +5404,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="18" t="s">
         <v>339</v>
       </c>
@@ -5259,7 +5426,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="41" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5267,7 +5434,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
@@ -5289,7 +5456,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="41" t="s">
         <v>327</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5297,7 +5464,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="18" t="s">
         <v>325</v>
       </c>
@@ -5311,10 +5478,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
@@ -5329,7 +5496,7 @@
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>319</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5337,7 +5504,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="12" t="s">
         <v>317</v>
       </c>
@@ -5402,10 +5569,10 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
@@ -5487,10 +5654,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
@@ -5509,16 +5676,16 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="15" t="s">
@@ -5585,7 +5752,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>378</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5593,13 +5760,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="16" t="s">
         <v>381</v>
       </c>
@@ -5613,10 +5780,10 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5636,16 +5803,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" style="30" customWidth="1"/>
     <col min="2" max="2" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5658,14 +5825,219 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="46"/>
+      <c r="B20" s="30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="31" t="s">
+        <v>468</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>

--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="477">
   <si>
     <t>Topics</t>
   </si>
@@ -2914,6 +2914,32 @@
   </si>
   <si>
     <t>candidates with increasing generational count are leak candidates</t>
+  </si>
+  <si>
+    <t>Memory Leak Types</t>
+  </si>
+  <si>
+    <t>1. Class Loaders: Memory leaks caused by java classloader mechanism
+2. ThreadLocal variables
+3. Off Heap Memory: Memory allocated manually seperately out of the normal java memory</t>
+  </si>
+  <si>
+    <t>ClassLoader memory leaks</t>
+  </si>
+  <si>
+    <t>How classloader is reason for memory leak</t>
+  </si>
+  <si>
+    <t>Reason for memory leaks</t>
+  </si>
+  <si>
+    <t>Classloader def: mechanism for dynamically loading java classes, as a raw byte code, into JVM</t>
+  </si>
+  <si>
+    <t>these classloaders will be loaded to JVM at run time but in certain situations they are not unloaded</t>
+  </si>
+  <si>
+    <t>every class is loaded by class loader. that means every class holds a reference to a class loader.</t>
   </si>
 </sst>
 </file>
@@ -3149,7 +3175,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3224,6 +3250,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3760,10 +3789,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3782,16 +3811,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -3818,10 +3847,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
@@ -3856,10 +3885,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -3924,10 +3953,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3954,7 +3983,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3962,13 +3991,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3982,7 +4011,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3990,7 +4019,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4108,7 +4137,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4116,13 +4145,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4264,10 +4293,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="38"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4278,7 +4307,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4286,13 +4315,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="41"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4300,25 +4329,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="41"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="39" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4326,13 +4355,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="38"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="38"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4368,10 +4397,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="43"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4446,7 +4475,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="41" t="s">
         <v>289</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4454,13 +4483,13 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="40"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>292</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -4468,7 +4497,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="29" t="s">
         <v>417</v>
       </c>
@@ -4525,13 +4554,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4539,25 +4568,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4565,13 +4594,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4697,7 +4726,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4705,7 +4734,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -4759,7 +4788,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="39" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4767,7 +4796,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>180</v>
       </c>
@@ -4789,7 +4818,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4797,13 +4826,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="38"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="38"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="23" t="s">
         <v>403</v>
       </c>
@@ -4881,7 +4910,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="39" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4889,7 +4918,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="38"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>206</v>
       </c>
@@ -5103,7 +5132,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -5111,13 +5140,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="38"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="39" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -5125,13 +5154,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="38"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="39" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -5139,13 +5168,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="38"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="39" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -5153,36 +5182,36 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="38"/>
-      <c r="B85" s="44"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="38"/>
-      <c r="B86" s="44"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="38"/>
-      <c r="B87" s="44"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="45"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="38"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="45"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="38"/>
-      <c r="B89" s="44"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="45"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="38"/>
-      <c r="B90" s="44"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="45"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="38"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="45"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="38"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="45"/>
     </row>
     <row r="93" spans="1:2" ht="75">
       <c r="A93" s="5" t="s">
@@ -5360,10 +5389,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -5382,7 +5411,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5390,13 +5419,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -5404,7 +5433,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="18" t="s">
         <v>339</v>
       </c>
@@ -5426,7 +5455,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5434,7 +5463,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
@@ -5456,7 +5485,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>327</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5464,7 +5493,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="18" t="s">
         <v>325</v>
       </c>
@@ -5478,10 +5507,10 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
@@ -5496,7 +5525,7 @@
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>319</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5504,7 +5533,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="12" t="s">
         <v>317</v>
       </c>
@@ -5569,10 +5598,10 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="34"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
@@ -5654,10 +5683,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
@@ -5676,16 +5705,16 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="15" t="s">
@@ -5752,7 +5781,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>378</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5760,13 +5789,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="16" t="s">
         <v>381</v>
       </c>
@@ -5780,10 +5809,10 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5803,11 +5832,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:A28"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5825,10 +5854,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="30" t="s">
@@ -5935,7 +5964,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>446</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -5943,7 +5972,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="30" t="s">
         <v>450</v>
       </c>
@@ -5957,7 +5986,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>452</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -5965,7 +5994,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="30" t="s">
         <v>451</v>
       </c>
@@ -6019,7 +6048,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="47" t="s">
         <v>466</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -6027,9 +6056,41 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="31" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="479">
   <si>
     <t>Topics</t>
   </si>
@@ -2940,6 +2940,12 @@
   </si>
   <si>
     <t>every class is loaded by class loader. that means every class holds a reference to a class loader.</t>
+  </si>
+  <si>
+    <t>to look inside a jar file</t>
+  </si>
+  <si>
+    <t>jar tvf target/myproject-0.0.1-SNAPSHOT.jar</t>
   </si>
 </sst>
 </file>
@@ -3271,15 +3277,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3289,10 +3286,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3392,7 +3398,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3983,7 +3989,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3991,13 +3997,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4011,7 +4017,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -4019,7 +4025,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4137,7 +4143,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4145,13 +4151,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4293,10 +4299,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4307,7 +4313,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4315,13 +4321,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="42"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4329,25 +4335,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="42"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="42"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="42"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="40" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4355,13 +4361,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="39"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="39"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4397,10 +4403,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="42"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4475,7 +4481,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="38" t="s">
         <v>289</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4483,13 +4489,13 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="41"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="37" t="s">
         <v>292</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -4497,24 +4503,24 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="40"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="29" t="s">
         <v>417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4568,25 +4574,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4594,13 +4600,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4726,7 +4732,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="40" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4734,7 +4740,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -4788,7 +4794,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4796,7 +4802,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="6" t="s">
         <v>180</v>
       </c>
@@ -4818,7 +4824,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4826,13 +4832,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="39"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="23" t="s">
         <v>403</v>
       </c>
@@ -4910,7 +4916,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="40" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4918,7 +4924,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="39"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>206</v>
       </c>
@@ -5132,7 +5138,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="40" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -5140,13 +5146,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="39"/>
+      <c r="A79" s="40"/>
       <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="40" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -5154,13 +5160,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="39"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="40" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -5168,13 +5174,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="39"/>
+      <c r="A83" s="40"/>
       <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -5182,35 +5188,35 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="39"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="39"/>
+      <c r="A86" s="40"/>
       <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="39"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="45"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="39"/>
+      <c r="A88" s="40"/>
       <c r="B88" s="45"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="39"/>
+      <c r="A89" s="40"/>
       <c r="B89" s="45"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="39"/>
+      <c r="A90" s="40"/>
       <c r="B90" s="45"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="39"/>
+      <c r="A91" s="40"/>
       <c r="B91" s="45"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="39"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="45"/>
     </row>
     <row r="93" spans="1:2" ht="75">
@@ -5370,9 +5376,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5411,7 +5419,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5419,13 +5427,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -5433,7 +5441,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="18" t="s">
         <v>339</v>
       </c>
@@ -5455,7 +5463,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5463,7 +5471,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
@@ -5485,7 +5493,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="39" t="s">
         <v>327</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5493,7 +5501,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="18" t="s">
         <v>325</v>
       </c>
@@ -5635,8 +5643,23 @@
         <v>294</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="34"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>477</v>
+      </c>
+      <c r="B39" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:B2"/>
@@ -5781,7 +5804,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>378</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5789,13 +5812,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="16" t="s">
         <v>381</v>
       </c>
@@ -5834,7 +5857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>

--- a/Definitions/c_Definitions_JVM.xlsx
+++ b/Definitions/c_Definitions_JVM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3277,6 +3277,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3286,19 +3295,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3398,7 +3398,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3775,9 +3775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3997,13 +3997,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4017,7 +4017,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -4025,7 +4025,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4151,13 +4151,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4299,10 +4299,10 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="38"/>
     </row>
     <row r="47" spans="1:2" ht="60">
       <c r="A47" s="7" t="s">
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4321,13 +4321,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="39"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4335,25 +4335,25 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="39"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="39"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="39"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="39" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -4361,13 +4361,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="40"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>99</v>
       </c>
@@ -4403,10 +4403,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="42"/>
+      <c r="B61" s="44"/>
     </row>
     <row r="62" spans="1:2" ht="30">
       <c r="A62" s="10" t="s">
@@ -4481,7 +4481,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="41" t="s">
         <v>289</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4489,13 +4489,13 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="38"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="40" t="s">
         <v>292</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -4503,24 +4503,24 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="37"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="29" t="s">
         <v>417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4541,8 +4541,8 @@
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:A92"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4574,25 +4574,25 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4600,13 +4600,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="40"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4740,7 +4740,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -4794,7 +4794,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4802,7 +4802,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>180</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="39" t="s">
         <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4832,13 +4832,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="23" t="s">
         <v>403</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>204</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -4924,7 +4924,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>206</v>
       </c>
@@ -5138,7 +5138,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -5146,13 +5146,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="45">
-      <c r="A79" s="40"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="39" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -5160,13 +5160,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="40"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="39" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -5174,13 +5174,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="40"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="39" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -5188,35 +5188,35 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="40"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="40"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="45"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="40"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="45"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="40"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="45"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="40"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="45"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="40"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="45"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="40"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="45"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="40"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="45"/>
     </row>
     <row r="93" spans="1:2" ht="75">
@@ -5378,7 +5378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -5419,7 +5419,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -5427,13 +5427,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -5441,7 +5441,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="18" t="s">
         <v>339</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5471,7 +5471,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
@@ -5493,7 +5493,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="42" t="s">
         <v>327</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5501,7 +5501,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="18" t="s">
         <v>325</v>
       </c>
@@ -5804,7 +5804,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>378</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -5812,13 +5812,13 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="16" t="s">
         <v>381</v>
       </c>
